--- a/target/test-classes/fileresultbook.xlsx
+++ b/target/test-classes/fileresultbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -44,25 +44,37 @@
     <t>No</t>
   </si>
   <si>
+    <t>.git</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>6012.0KB</t>
+  </si>
+  <si>
+    <t>Jul/16/2024 16:50:48</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>.idea</t>
   </si>
   <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>25.0KB</t>
-  </si>
-  <si>
-    <t>Jan/05/2024 19:06:11</t>
+    <t>58.0KB</t>
+  </si>
+  <si>
+    <t>Jul/16/2024 17:48:52</t>
   </si>
   <si>
     <t>.metadata</t>
   </si>
   <si>
-    <t>1199.0KB</t>
-  </si>
-  <si>
-    <t>Aug/14/2023 19:09:48</t>
+    <t>11033.0KB</t>
+  </si>
+  <si>
+    <t>Jan/17/2024 21:09:02</t>
   </si>
   <si>
     <t>.project</t>
@@ -77,9 +89,30 @@
     <t>bin</t>
   </si>
   <si>
+    <t>4.0KB</t>
+  </si>
+  <si>
     <t>Aug/14/2023 19:09:47</t>
   </si>
   <si>
+    <t>chromedriver.log</t>
+  </si>
+  <si>
+    <t>0.88671875KB</t>
+  </si>
+  <si>
+    <t>Jan/16/2024 23:44:54</t>
+  </si>
+  <si>
+    <t>cookies.txt</t>
+  </si>
+  <si>
+    <t>0.6279296875KB</t>
+  </si>
+  <si>
+    <t>Jun/16/2024 01:55:40</t>
+  </si>
+  <si>
     <t>example.xlsx</t>
   </si>
   <si>
@@ -89,19 +122,31 @@
     <t>Nov/02/2023 14:42:42</t>
   </si>
   <si>
+    <t>local_history.patch</t>
+  </si>
+  <si>
+    <t>1.0048828125KB</t>
+  </si>
+  <si>
+    <t>Apr/19/2024 10:52:27</t>
+  </si>
+  <si>
+    <t>log.txt</t>
+  </si>
+  <si>
     <t>pom.xml</t>
   </si>
   <si>
-    <t>3.8984375KB</t>
-  </si>
-  <si>
-    <t>Jan/05/2024 13:48:21</t>
+    <t>4.669921875KB</t>
+  </si>
+  <si>
+    <t>Jun/14/2024 17:10:06</t>
   </si>
   <si>
     <t>src</t>
   </si>
   <si>
-    <t>1034.0KB</t>
+    <t>1486.0KB</t>
   </si>
   <si>
     <t>Dec/31/2023 15:50:27</t>
@@ -110,16 +155,25 @@
     <t>target</t>
   </si>
   <si>
-    <t>49838.0KB</t>
-  </si>
-  <si>
-    <t>Jan/05/2024 18:04:48</t>
+    <t>47443.0KB</t>
+  </si>
+  <si>
+    <t>Jul/16/2024 17:35:15</t>
   </si>
   <si>
     <t>test-output</t>
   </si>
   <si>
     <t>Aug/14/2023 18:47:05</t>
+  </si>
+  <si>
+    <t>testng.xml</t>
+  </si>
+  <si>
+    <t>0.4677734375KB</t>
+  </si>
+  <si>
+    <t>Jun/03/2024 00:03:52</t>
   </si>
 </sst>
 </file>
@@ -127,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -135,16 +189,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="20.0"/>
+      <b val="true"/>
+      <color indexed="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,32 +228,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true" applyFill="true">
+      <alignment wrapText="true" vertical="bottom" shrinkToFit="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment wrapText="true" vertical="center" shrinkToFit="true" horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.5" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="17.8046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.23046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="50.0" customHeight="true">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -225,21 +314,21 @@
         <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
@@ -247,16 +336,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>9</v>
@@ -264,13 +353,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>8</v>
@@ -281,16 +370,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>9</v>
@@ -298,16 +387,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>9</v>
@@ -315,16 +404,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>9</v>
@@ -332,16 +421,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>9</v>
@@ -349,16 +438,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>9</v>
@@ -366,18 +455,120 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
